--- a/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3268846-B3C5-5747-8BA3-DFADC7763A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3E10D-5FDE-D146-9369-7EDA2D240EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10520" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,38 +704,62 @@
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="4">
+        <v>3.96</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9.82</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>57048</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3E10D-5FDE-D146-9369-7EDA2D240EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A535EC-E1FD-5C4C-9839-CE19C0FF8056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="12620" yWindow="1620" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Methane_nu</t>
   </si>
   <si>
-    <t>Average k600 @xn10</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -123,6 +120,27 @@
   </si>
   <si>
     <t>55,59</t>
+  </si>
+  <si>
+    <t>mean:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvd                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>Background data @ -10m</t>
+  </si>
+  <si>
+    <t>Ave k600</t>
+  </si>
+  <si>
+    <t>need air temp</t>
+  </si>
+  <si>
+    <t>Ave flux um/m2</t>
+  </si>
+  <si>
+    <t>Ave. CO2 ppm</t>
   </si>
 </sst>
 </file>
@@ -165,12 +183,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,6 +218,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,37 +557,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.47222222222222227</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>4.9134140000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>30</v>
@@ -570,21 +600,36 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.15228430000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1363636</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.14432400000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>272.93450000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>418.28629999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -602,10 +647,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -672,14 +717,16 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
-        <v>945.33230000000003</v>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>1015.9407</v>
@@ -745,22 +792,46 @@
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>940.38729999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>1.842778</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A535EC-E1FD-5C4C-9839-CE19C0FF8056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A128719A-DFBB-7C4B-AE04-E090EAEEA265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="1620" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="9000" yWindow="1620" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -62,9 +62,6 @@
     <t>k600_m/d</t>
   </si>
   <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>Dist</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>mean:</t>
   </si>
   <si>
-    <t xml:space="preserve">vvd                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
-  </si>
-  <si>
     <t>Background data @ -10m</t>
   </si>
   <si>
@@ -141,13 +135,19 @@
   </si>
   <si>
     <t>Ave. CO2 ppm</t>
+  </si>
+  <si>
+    <t>DOC mg/l</t>
+  </si>
+  <si>
+    <t>TDN mg/l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,26 +161,33 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Monaco"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
+      <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,16 +216,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,306 +541,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>44763</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4.9134140000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.15228430000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.1363636</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.14432400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>272.93450000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>418.28629999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.47222222222222227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4.9134140000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>273.11149999999998</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>301.0317</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>946.40030000000002</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1051.8281999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>390.13580000000002</v>
+      </c>
+      <c r="E16" s="6">
+        <v>869.95429999999999</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>941.95759999999996</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5972.6941999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2597.1761999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1899.0362</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1015.9407</v>
+      </c>
+      <c r="D18" s="6">
+        <v>377.26479999999998</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.0669999999999997</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.8149999999999986</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.96</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5.08</v>
+      </c>
+      <c r="E20" s="6">
+        <v>9.82</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.58</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8">
+        <v>57048</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>940.38729999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.842778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.15228430000000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.1363636</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.14432400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>272.93450000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>418.28629999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>273.11149999999998</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4">
-        <v>301.0317</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>946.40030000000002</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1051.8281999999999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>390.13580000000002</v>
-      </c>
-      <c r="E16" s="4">
-        <v>869.95429999999999</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>941.95759999999996</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5972.6941999999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2597.1761999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1899.0362</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1015.9407</v>
-      </c>
-      <c r="D18" s="4">
-        <v>377.26479999999998</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3.96</v>
-      </c>
-      <c r="C20" s="4">
-        <v>5.08</v>
-      </c>
-      <c r="D20" s="4">
-        <v>9.82</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>3.58</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>9.99</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5">
-        <v>57048</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>940.38729999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>1.842778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A128719A-DFBB-7C4B-AE04-E090EAEEA265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D962B0-9399-8140-B538-77986A5E9750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="1620" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Q(handheld)_l/s</t>
   </si>
   <si>
-    <t>Q(salt)_l/s</t>
-  </si>
-  <si>
     <t>Methane_nu</t>
   </si>
   <si>
@@ -125,29 +122,53 @@
     <t>Background data @ -10m</t>
   </si>
   <si>
-    <t>Ave k600</t>
-  </si>
-  <si>
-    <t>need air temp</t>
-  </si>
-  <si>
     <t>Ave flux um/m2</t>
   </si>
   <si>
-    <t>Ave. CO2 ppm</t>
-  </si>
-  <si>
     <t>DOC mg/l</t>
   </si>
   <si>
     <t>TDN mg/l</t>
+  </si>
+  <si>
+    <t>%diff in CO2 ppm during injection</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (air)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (water)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (air)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (water)</t>
+  </si>
+  <si>
+    <t>Ave k m/d</t>
+  </si>
+  <si>
+    <t>Ave k600 m/d</t>
+  </si>
+  <si>
+    <t>Q(salt)_l/s (1)</t>
+  </si>
+  <si>
+    <t>Q(salt) peak (1)</t>
+  </si>
+  <si>
+    <t>Q(salt)_l/s (2)</t>
+  </si>
+  <si>
+    <t>Q(salt) peak (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +210,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -216,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -227,6 +254,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="19" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,16 +571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="29.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="5" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="29.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -566,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -601,7 +635,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>30</v>
@@ -609,7 +643,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6">
         <v>0.15228430000000001</v>
@@ -618,7 +652,7 @@
         <v>0.1363636</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6">
         <v>0.14432400000000001</v>
@@ -628,21 +662,21 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>272.93450000000001</v>
+      <c r="B9" s="10">
+        <v>250.42789999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <v>418.28629999999998</v>
+      <c r="B10" s="10">
+        <v>383.7937</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>3.1080000000000001</v>
@@ -651,7 +685,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0.10299999999999999</v>
@@ -668,10 +702,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -720,7 +754,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -740,7 +774,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -759,7 +793,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -778,9 +812,9 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>12</v>
@@ -797,83 +831,172 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="11">
+        <v>0.44851851851851854</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.44965277777777773</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.45079861111111108</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
         <v>3.58</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>5.4</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>9.99</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="12">
+        <v>0.46800925925925929</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.46913194444444445</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.47055555555555556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8">
+        <v>57048</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <f>ABS((B17-B16)/AVERAGE(B17,B16))*100</f>
+        <v>0.47053580256158634</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
+        <v>271.3623</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="10">
+        <v>940.4</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="10">
+        <v>4.8360000000000003</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1.843</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10">
+        <v>49.01</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="10">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="8">
-        <v>57048</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3">
-        <v>940.38729999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1.842778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B35" s="4"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="H36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D962B0-9399-8140-B538-77986A5E9750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E3AB9-C28C-A746-A2E6-F0DAD8983FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1620" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="8300" yWindow="860" windowWidth="26840" windowHeight="19920" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,11 +252,11 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="19" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,7 +574,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>250.42789999999999</v>
       </c>
     </row>
@@ -670,12 +670,12 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>383.7937</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B11">
@@ -684,7 +684,7 @@
       <c r="C11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B12">
@@ -838,13 +838,13 @@
       <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>0.44851851851851854</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>0.44965277777777773</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>0.45079861111111108</v>
       </c>
       <c r="F21" s="6"/>
@@ -872,13 +872,13 @@
         <v>41</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>0.46800925925925929</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>0.46913194444444445</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>0.47055555555555556</v>
       </c>
     </row>
@@ -886,16 +886,16 @@
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="12">
         <v>57048</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -916,73 +916,73 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3">
         <v>271.3623</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>940.4</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>5.8940000000000001</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>4.8360000000000003</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>1.843</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>49.01</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>75.260000000000005</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">

--- a/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E3AB9-C28C-A746-A2E6-F0DAD8983FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F803ABB-5190-A849-87B7-E4D7532D542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="860" windowWidth="26840" windowHeight="19920" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="19820" yWindow="2060" windowWidth="26840" windowHeight="19920" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>time_start</t>
   </si>
   <si>
@@ -162,6 +159,15 @@
   </si>
   <si>
     <t>Q(salt) peak (2)</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 15</t>
+  </si>
+  <si>
+    <t>slope btw 15 and 30</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 30</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -257,6 +263,8 @@
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="19" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,7 +283,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,7 +595,7 @@
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,408 +603,426 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1.0266666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.73000000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4.9134140000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.15228430000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.1363636</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.14432400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>250.42789999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9">
+        <v>383.7937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.47222222222222227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4.9134140000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.15228430000000001</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.1363636</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.14432400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9">
-        <v>250.42789999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
-        <v>383.7937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6">
-        <v>273.11149999999998</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6">
-        <v>301.0317</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <v>946.40030000000002</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1051.8281999999999</v>
-      </c>
-      <c r="D16" s="6">
-        <v>390.13580000000002</v>
-      </c>
-      <c r="E16" s="6">
-        <v>869.95429999999999</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="6">
-        <v>941.95759999999996</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5972.6941999999999</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2597.1761999999999</v>
+        <v>273.11149999999998</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="E17" s="6">
-        <v>1899.0362</v>
+        <v>301.0317</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B18" s="6">
+        <v>946.40030000000002</v>
+      </c>
       <c r="C18" s="6">
-        <v>1015.9407</v>
+        <v>1051.8281999999999</v>
       </c>
       <c r="D18" s="6">
-        <v>377.26479999999998</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>390.13580000000002</v>
+      </c>
+      <c r="E18" s="6">
+        <v>869.95429999999999</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3.0669999999999997</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.8149999999999986</v>
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>941.95759999999996</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5972.6941999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2597.1761999999999</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1899.0362</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6">
-        <v>3.96</v>
+        <v>1015.9407</v>
       </c>
       <c r="D20" s="6">
-        <v>5.08</v>
-      </c>
-      <c r="E20" s="6">
-        <v>9.82</v>
+        <v>377.26479999999998</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.44851851851851854</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.44965277777777773</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.45079861111111108</v>
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3.0669999999999997</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4.8149999999999986</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3.96</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.08</v>
+      </c>
+      <c r="E22" s="6">
+        <v>9.82</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.44851851851851854</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.44965277777777773</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.45079861111111108</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3.58</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3.58</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="E22" s="6">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="11">
+      <c r="B25" s="6"/>
+      <c r="C25" s="11">
         <v>0.46800925925925929</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D25" s="11">
         <v>0.46913194444444445</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E25" s="11">
         <v>0.47055555555555556</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="12">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="12">
         <v>57048</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <f>ABS((B19-B18)/AVERAGE(B19,B18))*100</f>
+        <v>0.47053580256158634</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
-        <f>ABS((B17-B16)/AVERAGE(B17,B16))*100</f>
-        <v>0.47053580256158634</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="B30" s="3">
+        <v>271.3623</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3">
-        <v>271.3623</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="B31" s="9">
         <v>940.4</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="9">
-        <v>5.8940000000000001</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="9">
-        <v>4.8360000000000003</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B32" s="9">
-        <v>1.843</v>
+        <v>5.8940000000000001</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="9">
-        <v>49.01</v>
+        <v>4.8360000000000003</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B34" s="9">
-        <v>75.260000000000005</v>
+        <v>1.843</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B35" s="9">
+        <v>49.01</v>
+      </c>
       <c r="H35" s="1"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B36" s="9">
+        <v>75.260000000000005</v>
+      </c>
       <c r="H36" s="1"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F803ABB-5190-A849-87B7-E4D7532D542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BABA6-A0B8-4743-AC92-F69FCE8BD100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="2060" windowWidth="26840" windowHeight="19920" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="9000" yWindow="1000" windowWidth="26840" windowHeight="19920" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>slope btw 0 and 30</t>
+  </si>
+  <si>
+    <t>Ave Pressure kpa (air)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -263,8 +266,6 @@
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="19" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,26 +613,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="3">
         <v>1.0266666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="3">
         <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="3">
         <v>0.73000000000000009</v>
       </c>
     </row>
@@ -972,57 +973,67 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B33" s="9">
-        <v>4.8360000000000003</v>
+        <v>62.4</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B34" s="9">
-        <v>1.843</v>
+        <v>4.8360000000000003</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B35" s="9">
-        <v>49.01</v>
+        <v>1.843</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9">
-        <v>75.260000000000005</v>
+        <v>49.01</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>75.260000000000005</v>
+      </c>
       <c r="H37" s="1"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="4"/>
       <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="H39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
